--- a/docs/Nội dung.xlsx
+++ b/docs/Nội dung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\GitHub\blog.123in.vn\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub02\blog.123in-vn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A8F24-AF35-49B4-8E10-F6D10D6A912B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23788C7D-91B2-4ABF-A0AB-52F2AAE368D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Danh mục</t>
   </si>
   <si>
     <t>Tags</t>
+  </si>
+  <si>
+    <t>Đối tượng quan tâm đến in ấn</t>
+  </si>
+  <si>
+    <t>- làm nghề thiết kế đồ họa</t>
+  </si>
+  <si>
+    <t>- dịch vụ thiết kế đồ họa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
   </si>
 </sst>
 </file>
@@ -80,13 +92,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,24 +377,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Nội dung.xlsx
+++ b/docs/Nội dung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub02\blog.123in-vn\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\GitHub\blog.123in.vn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23788C7D-91B2-4ABF-A0AB-52F2AAE368D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B8D61-E1A9-422F-A86C-38DF95AC5501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Danh mục</t>
   </si>
@@ -43,6 +43,87 @@
   </si>
   <si>
     <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Công nghệ in</t>
+  </si>
+  <si>
+    <t>Chế bản in</t>
+  </si>
+  <si>
+    <t>Ấn phẩm thương mại</t>
+  </si>
+  <si>
+    <t>Bao bì &amp; nhãn</t>
+  </si>
+  <si>
+    <t>Vật liệu in</t>
+  </si>
+  <si>
+    <t>Ấn phẩm quảng cáo</t>
+  </si>
+  <si>
+    <t>Màu sắc</t>
+  </si>
+  <si>
+    <t>In ảnh</t>
+  </si>
+  <si>
+    <t>In offset</t>
+  </si>
+  <si>
+    <t>In kỹ thuật số</t>
+  </si>
+  <si>
+    <t>In digital</t>
+  </si>
+  <si>
+    <t>In phun</t>
+  </si>
+  <si>
+    <t>Trước in</t>
+  </si>
+  <si>
+    <t>Sau in</t>
+  </si>
+  <si>
+    <t>Gia công sau in</t>
+  </si>
+  <si>
+    <t>Xuất bản phẩm</t>
+  </si>
+  <si>
+    <t>HP Indigo</t>
+  </si>
+  <si>
+    <t>In áo thun</t>
+  </si>
+  <si>
+    <t>Hệ màu RGB</t>
+  </si>
+  <si>
+    <t>Hệ màu CMYK</t>
+  </si>
+  <si>
+    <t>Thành phẩm in</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Truyền Thông</t>
+  </si>
+  <si>
+    <t>Sự Kiện</t>
+  </si>
+  <si>
+    <t>Trang Trí</t>
+  </si>
+  <si>
+    <t>Nhân Văn</t>
+  </si>
+  <si>
+    <t>Sống Đẹp</t>
   </si>
 </sst>
 </file>
@@ -99,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,8 +469,9 @@
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -407,15 +489,128 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Nội dung.xlsx
+++ b/docs/Nội dung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\GitHub\blog.123in.vn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B8D61-E1A9-422F-A86C-38DF95AC5501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92354A-F3C1-4A9E-98B3-EF5B02D75DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Danh mục</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>Truyền Thông</t>
-  </si>
-  <si>
     <t>Sự Kiện</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>Sống Đẹp</t>
+  </si>
+  <si>
+    <t>Truyền thông</t>
+  </si>
+  <si>
+    <t>Nanographic</t>
+  </si>
+  <si>
+    <t>Digital printing</t>
+  </si>
+  <si>
+    <t>Giấy</t>
+  </si>
+  <si>
+    <t>Giấy mỹ thuật</t>
   </si>
 </sst>
 </file>
@@ -458,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,27 +602,52 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Nội dung.xlsx
+++ b/docs/Nội dung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\GitHub\blog.123in.vn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92354A-F3C1-4A9E-98B3-EF5B02D75DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A390EC-E778-4ADE-B50B-84A4A390AE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Danh mục</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,21 +632,16 @@
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L25" t="s">
         <v>36</v>
       </c>
     </row>
